--- a/data/trans_dic/P7A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &gt; 60 años</t>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>38,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>37,68%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,18%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>38,63%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46,3%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>40,11%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39,95%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>37,78%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>38,86%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>37,24%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>36,3%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>38,91%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>42,58%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,4; 37,97</t>
+          <t>29,83; 37,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,66; 40,34</t>
+          <t>32,21; 40,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,94; 39,8</t>
+          <t>31,72; 39,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 38,18</t>
+          <t>29,42; 37,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,91; 41,25</t>
+          <t>33,24; 43,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,89; 44,84</t>
+          <t>34,14; 41,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,61; 45,28</t>
+          <t>34,99; 43,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,1; 42,8</t>
+          <t>37,77; 45,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,9; 43,54</t>
+          <t>37,85; 45,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,82</t>
+          <t>35,06; 42,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,17; 40,4</t>
+          <t>34,59; 41,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,14; 41,85</t>
+          <t>42,54; 50,72</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>34,4; 40,19</t>
+          <t>36,6; 44,17</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>33,4; 39,67</t>
+          <t>36,63; 43,53</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>36,17; 41,69</t>
+          <t>35,39; 40,48</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>36,01; 41,74</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>34,49; 39,77</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>33,46; 38,78</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 45,9</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>36,18; 41,71</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>36,72; 42,0</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>32,94%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36,14%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>34,07%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>35,58%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>32,63%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,56%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>32,45%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>32,96%</t>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>33,4%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>37,64%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,4; 40,24</t>
+          <t>31,19; 40,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,69; 36,11</t>
+          <t>27,28; 36,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 36,93</t>
+          <t>27,7; 36,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,55; 36,96</t>
+          <t>27,45; 36,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,23; 38,26</t>
+          <t>34,3; 44,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,58; 39,9</t>
+          <t>26,22; 38,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,23; 39,08</t>
+          <t>21,57; 32,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,03; 36,76</t>
+          <t>31,96; 39,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,86; 38,28</t>
+          <t>28,99; 37,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,42; 41,65</t>
+          <t>28,95; 36,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,71; 38,55</t>
+          <t>30,73; 39,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,46; 36,07</t>
+          <t>31,61; 41,49</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>29,45; 35,69</t>
+          <t>26,71; 41,3</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 36,21</t>
+          <t>31,27; 44,6</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28,38; 37,63</t>
+          <t>32,63; 38,66</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>29,42; 36,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>29,44; 35,37</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 36,42</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>34,35; 41,55</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>28,34; 38,08</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>27,55; 36,61</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>41,18%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>45,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>41,47%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>41,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49,11%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>39,4%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>42,81%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>40,26%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>43,34%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>42,94%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>40,5%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>43,89%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>45,79%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,77; 47,19</t>
+          <t>28,63; 47,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,97; 50,71</t>
+          <t>28,94; 48,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,76; 48,0</t>
+          <t>31,03; 48,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,21; 54,22</t>
+          <t>36,83; 55,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>31,33; 54,17</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>34,76; 49,56</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,58; 54,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,77; 49,08</t>
+          <t>33,44; 49,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,86; 49,02</t>
+          <t>38,84; 56,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>34,53; 49,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>34,18; 49,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39,6; 58,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>34,0; 45,81</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>36,57; 50,04</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>34,72; 46,37</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>37,25; 48,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>33,29; 45,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>36,49; 49,46</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>34,89; 46,53</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>37,96; 49,7</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>37,69; 52,97</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>34,59%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>34,62%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>39,26%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>36,3%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>39,02%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>39,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36,78%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>37,1%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>36,89%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>35,73%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>35,93%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>37,56%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>37,7%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 37,99</t>
+          <t>32,43; 37,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,29; 37,64</t>
+          <t>31,83; 37,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,93; 37,5</t>
+          <t>31,77; 37,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,82; 37,8</t>
+          <t>31,71; 37,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,72</t>
+          <t>35,54; 42,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,6; 41,68</t>
+          <t>32,94; 39,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,17; 41,85</t>
+          <t>32,79; 39,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,42; 39,44</t>
+          <t>36,52; 41,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,62; 40,07</t>
+          <t>36,59; 42,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,54; 42,08</t>
+          <t>34,31; 39,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,34; 39,05</t>
+          <t>34,76; 39,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,74; 38,8</t>
+          <t>39,6; 45,69</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>33,72; 37,64</t>
+          <t>35,6; 42,41</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>34,07; 37,88</t>
+          <t>36,28; 42,5</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 40,08</t>
+          <t>35,48; 39,01</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 38,89</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>33,97; 37,7</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>33,97; 37,9</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>38,67; 43,55</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>35,22; 40,01</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>35,31; 39,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,79%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>558689</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>597313</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>582450</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>550983</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>627953</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>86462</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>88090</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>737683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>753471</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>701525</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>692169</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>830610</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>95418</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>93415</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1296372</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1350784</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1283975</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1243151</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1458563</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>181879</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>181504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>489181; 619496</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>528305; 666289</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>519433; 649310</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>481058; 619697</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>542209; 705524</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>78330; 95357</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>79144; 97297</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>676399; 807083</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>684809; 823231</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>636730; 767340</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>626456; 760420</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>763188; 910061</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>87068; 105082</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85648; 101797</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1214221; 1388725</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1242150; 1439958</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1191300; 1373516</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1153226; 1336441</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>1343329; 1572278</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>169068; 194912</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>168926; 193226</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>492257</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>433356</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>440868</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>445561</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>536636</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23087</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19593</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>502524</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>461831</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>449643</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>474496</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>500064</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22335</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24852</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>994781</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>895187</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>890511</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>920057</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1036701</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>45422</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>44445</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>432550; 558606</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>373539; 506061</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>382010; 504685</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>379253; 505938</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>469987; 610469</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18956; 27764</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15760; 24065</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>450550; 562468</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>401743; 522650</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>395226; 504604</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>422135; 542007</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>437480; 574225</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>17513; 27080</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20690; 29510</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>912399; 1081022</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>810442; 991708</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>807899; 970755</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>833683; 1003495</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>946202; 1144413</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>39070; 52498</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>38358; 50972</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>159214</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>161974</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>166313</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>194706</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>178371</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>169626</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>196452</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>170845</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>171628</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>202280</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>328840</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>358427</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>337158</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>366333</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>380651</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>121070; 200504</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>122366; 203433</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>131185; 203917</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>155709; 233220</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>131407; 227198</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>137729; 201935</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>159988; 233003</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>141437; 203898</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>140791; 202769</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>163106; 242741</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>277889; 377754</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>304582; 412840</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>290409; 387329</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>316858; 414848</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>313317; 440332</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>490.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>567.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>568.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1097.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>923.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>853.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>703.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>745.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1210160</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1192644</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1189631</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1191249</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1342961</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>109548</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>107683</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1409833</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1411754</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1322012</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1338293</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1532954</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>117753</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>118266</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2619993</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2604398</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2511643</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2529542</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2875915</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>227302</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>225949</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1118521; 1301632</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1092455; 1303997</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1092786; 1284060</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1090550; 1291092</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1215671; 1454484</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>99408; 119294</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>98123; 117585</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1319203; 1497546</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1319655; 1520831</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1231910; 1411753</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1250089; 1434970</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1421650; 1640377</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>108033; 128678</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>108847; 127489</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2505373; 2754721</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2445038; 2737397</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2388233; 2650524</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2389834; 2666835</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2711000; 3052913</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>213123; 242130</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>211614; 239428</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
